--- a/kongkong_0116_从Excel读写用例/test_data/test_data.xlsx
+++ b/kongkong_0116_从Excel读写用例/test_data/test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9210" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>序号</t>
   </si>
@@ -117,16 +117,19 @@
     <t>正常登陆功能测试</t>
   </si>
   <si>
+    <t>FAILD</t>
+  </si>
+  <si>
+    <t>密码输入错误</t>
+  </si>
+  <si>
+    <t>手机号输入错误</t>
+  </si>
+  <si>
+    <t>手机号密码都为空</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>密码输入错误</t>
-  </si>
-  <si>
-    <t>手机号输入错误</t>
-  </si>
-  <si>
-    <t>手机号密码都为空</t>
   </si>
   <si>
     <t>amount</t>
@@ -785,7 +788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -799,7 +802,7 @@
     <col customWidth="1" max="6" min="6" style="10" width="15.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -841,11 +844,14 @@
       <c r="F2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -861,11 +867,14 @@
       <c r="F3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -881,11 +890,14 @@
       <c r="F4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -904,11 +916,14 @@
       <c r="F5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -927,11 +942,14 @@
       <c r="F6" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -944,8 +962,67 @@
       <c r="F7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -985,13 +1062,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -1002,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>15898745632</v>
@@ -1017,7 +1094,7 @@
         <v>10001</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1025,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>15898745632</v>
@@ -1040,7 +1117,7 @@
         <v>10001</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1048,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>15898745632</v>
@@ -1063,7 +1140,7 @@
         <v>10001</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1071,7 +1148,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>15898745632</v>
@@ -1086,7 +1163,7 @@
         <v>10001</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1094,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>15898745632</v>
@@ -1109,7 +1186,7 @@
         <v>10001</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1117,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>15898745632</v>
@@ -1132,7 +1209,7 @@
         <v>20117</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1140,7 +1217,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>15898745632</v>
@@ -1155,7 +1232,7 @@
         <v>20117</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1176,7 +1253,7 @@
         <v>20103</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1199,7 +1276,7 @@
         <v>20109</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1207,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>15898745632</v>
@@ -1219,7 +1296,7 @@
         <v>20115</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1227,13 +1304,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>15898745632</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="10" t="n">
         <v>20118</v>
@@ -1242,7 +1319,7 @@
         <v>20118</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/kongkong_0116_从Excel读写用例/test_data/test_data.xlsx
+++ b/kongkong_0116_从Excel读写用例/test_data/test_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9210" windowWidth="23040" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9210" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -48,6 +48,9 @@
     <t>Sherlock</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>不输入注册名（该项可选）</t>
   </si>
   <si>
@@ -115,9 +118,6 @@
   </si>
   <si>
     <t>正常登陆功能测试</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>密码输入错误</t>
@@ -512,8 +512,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>15898745632</v>
+        <v>18930284356</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -570,6 +570,12 @@
       </c>
       <c r="F2" s="10" t="n">
         <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -577,16 +583,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>15898745631</v>
+        <v>18930284357</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>123456</v>
       </c>
       <c r="F3" s="10" t="n">
         <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -594,16 +606,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>15898745633</v>
+        <v>18930284358</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -611,16 +629,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>15898745634</v>
+        <v>18930284359</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -628,16 +652,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>15898745635</v>
+        <v>18930284360</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -645,13 +675,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>15898745636</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -659,16 +695,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>123456</v>
       </c>
       <c r="F8" s="10" t="n">
         <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -676,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>1589874563</v>
@@ -686,6 +728,12 @@
       </c>
       <c r="F9" s="10" t="n">
         <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -693,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>123456</v>
@@ -704,22 +752,34 @@
       <c r="F10" s="10" t="n">
         <v>0</v>
       </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>123457</v>
       </c>
       <c r="F11" s="10" t="n">
         <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -727,16 +787,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -744,16 +810,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="10" t="n">
         <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -761,7 +833,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>15898745632</v>
@@ -771,6 +843,12 @@
       </c>
       <c r="F14" s="10" t="n">
         <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +866,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -827,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>15898745632</v>
@@ -842,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -850,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>123456</v>
@@ -862,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -870,7 +948,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>15898745632</v>
@@ -882,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -905,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -916,7 +994,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>123456</v>
@@ -928,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -945,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +1039,7 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1017,7 +1095,7 @@
         <v>10001</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1040,7 +1118,7 @@
         <v>10001</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1063,7 +1141,7 @@
         <v>10001</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1086,7 +1164,7 @@
         <v>10001</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1109,7 +1187,7 @@
         <v>10001</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1132,7 +1210,7 @@
         <v>20117</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1155,7 +1233,7 @@
         <v>20117</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1163,7 +1241,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="n"/>
       <c r="D9" s="12" t="n">
@@ -1176,7 +1254,7 @@
         <v>20103</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1187,7 +1265,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="12" t="n">
         <v>100000</v>
@@ -1199,7 +1277,7 @@
         <v>20109</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1219,7 +1297,7 @@
         <v>20115</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1242,7 +1320,7 @@
         <v>20118</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
